--- a/data/dummy_jabar.xlsx
+++ b/data/dummy_jabar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICRAF\Kodingan\icraf-indonesia\lcd-validation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D13803C0-C526-4F7B-B046-3EDC7AE75D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E307C0D1-CE33-4B22-9418-9C1FD666F4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3B0156D5-0F16-4DDB-A717-A286F3CD5421}"/>
   </bookViews>

--- a/data/dummy_jabar.xlsx
+++ b/data/dummy_jabar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICRAF\Kodingan\icraf-indonesia\lcd-validation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E307C0D1-CE33-4B22-9418-9C1FD666F4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBEBCA0-1065-4475-B3A9-CBE01A29A505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3B0156D5-0F16-4DDB-A717-A286F3CD5421}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>Peningkatan Cadangan Karbon</t>
   </si>
   <si>
-    <t>Jawa Barat</t>
-  </si>
-  <si>
     <t>batang</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Pembuatan Agroforestri</t>
+  </si>
+  <si>
+    <t>JAWA BARAT</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,10 +507,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -578,10 +578,10 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2">
         <v>2020</v>
@@ -593,16 +593,16 @@
         <v>1000</v>
       </c>
       <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -619,10 +619,10 @@
         <v>1112</v>
       </c>
       <c r="B3">
-        <v>-6.552257</v>
+        <v>-6.5521228000000002</v>
       </c>
       <c r="C3">
-        <v>106.753675</v>
+        <v>106.7535814</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -634,10 +634,10 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>2020</v>
@@ -649,16 +649,16 @@
         <v>2000</v>
       </c>
       <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P3">
         <v>200</v>
@@ -690,10 +690,10 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <v>2020</v>
@@ -705,16 +705,16 @@
         <v>5500</v>
       </c>
       <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P4">
         <v>1000</v>
